--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,67 +558,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lanús vs Atlético Tucumán</t>
+          <t>Bragantino vs Atlético Mineiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-14 23:00:00</t>
+          <t>2025-11-16 22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -638,67 +638,67 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albacete vs FC Andorra</t>
+          <t>Central Cordoba SdE vs Banfield</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-11-15 15:00:00</t>
+          <t>2025-11-16 23:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -706,83 +706,75 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Castellón vs Real Sociedad II</t>
+          <t>Newell's Old Boys vs Racing Club</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-11-15 15:00:00</t>
+          <t>2025-11-16 23:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -803,87 +795,71 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Godoy Cruz vs Deportivo Riestra</t>
+          <t>Estudiantes vs Argentinos Juniors</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-15 20:00:00</t>
+          <t>2025-11-16 23:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
     </row>
@@ -895,62 +871,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aldosivi vs San Martín San Juan</t>
+          <t>Boca Juniors vs Tigre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-11-15 20:00:00</t>
+          <t>2025-11-16 23:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -971,62 +947,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Racing Santander vs Granada</t>
+          <t>Cultural Leonesa vs Málaga</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-11-15 20:00:00</t>
+          <t>2025-11-17 19:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1042,93 +1018,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sport Recife vs Flamengo</t>
+          <t>Defensa y Justicia vs Independiente Rivadavia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-11-15 21:30:00</t>
+          <t>2025-11-17 20:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1139,42 +1099,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Lorenzo vs Sarmiento</t>
+          <t>Barracas Central vs Huracán</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-15 22:15:00</t>
+          <t>2025-11-17 20:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1189,114 +1149,114 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Santos vs Palmeiras</t>
+          <t>Belgrano vs Unión Santa Fe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-16 00:00:00</t>
+          <t>2025-11-17 20:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1307,44 +1267,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Independiente vs Rosario Central</t>
+          <t>Platense vs Gimnasia La Plata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-16 00:30:00</t>
+          <t>2025-11-17 22:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>1.61</t>
@@ -1357,12 +1317,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1378,69 +1338,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Felgueiras 1932 vs Farense</t>
+          <t>Botafogo vs Sport Recife</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-11-16 11:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+          <t>2025-11-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1454,69 +1374,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ceuta vs Leganés</t>
+          <t>Bragantino vs Vitória</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-11-16 13:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+          <t>2025-11-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -1530,159 +1410,103 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Almería vs Cádiz</t>
+          <t>Atlético Mineiro vs Palmeiras</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-11-16 15:15:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+          <t>2025-11-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sporting Gijón vs SD Eibar</t>
+          <t>Palmeiras vs Vitória</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-11-16 15:15:00</t>
+          <t>2025-11-19 22:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1698,313 +1522,293 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Córdoba vs Deportivo La Coruña</t>
+          <t>Fluminense vs Flamengo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-11-16 17:30:00</t>
+          <t>2025-11-20 00:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mirandés vs Burgos</t>
+          <t>Santos vs Mirassol</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-11-16 17:30:00</t>
+          <t>2025-11-20 00:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leixões vs Chaves</t>
+          <t>Grêmio vs Vasco da Gama</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-11-16 18:00:00</t>
+          <t>2025-11-20 00:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instituto vs Talleres Córdoba</t>
+          <t>Juventude vs Cruzeiro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-11-16 20:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
+          <t>2025-11-20 19:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2018,73 +1822,73 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vélez Sarsfield vs River Plate</t>
+          <t>Bahia vs Fortaleza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-11-16 20:00:00</t>
+          <t>2025-11-20 21:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -2094,69 +1898,61 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Real Zaragoza vs Huesca</t>
+          <t>Corinthians vs São Paulo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-11-16 20:00:00</t>
+          <t>2025-11-20 22:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -2167,714 +1963,6 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Serie A - BRA CB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bragantino vs Atlético Mineiro</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-11-16 22:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Central Cordoba SdE vs Banfield</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-11-16 23:15:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Newell's Old Boys vs Racing Club</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-11-16 23:15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Estudiantes vs Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-11-16 23:15:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Boca Juniors vs Tigre</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-11-16 23:15:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>La Liga 2 - ESP S</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cultural Leonesa vs Málaga</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-11-17 19:30:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia vs Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-11-17 20:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Barracas Central vs Huracán</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-11-17 20:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Belgrano vs Unión Santa Fe</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-11-17 20:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Platense vs Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-11-17 22:30:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,20 +516,40 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Bet365_Lines_Goals_Over_3.5</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Bet365_Lines_Goals_Under_2.5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Bet365_Lines_Goals_Under_3.5</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Pinnacle_Lines_Goals_Over_2.5</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Pinnacle_Lines_Goals_Over_3.5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pinnacle_Lines_Goals_Under_2.5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Pinnacle_Lines_Goals_Under_3.5</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Para mais mercados visite o site</t>
         </is>
@@ -538,27 +558,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cruzeiro vs Corinthians</t>
+          <t>Unión Santa Fe vs Gimnasia La Plata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-23 23:30:00</t>
+          <t>2025-11-25 01:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -568,60 +588,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>https://www.quantumodds.xyz/</t>
         </is>
@@ -635,22 +643,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philadelphia Union vs New York City</t>
+          <t>San Diego vs Minnesota United</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-11-24 00:45:00</t>
+          <t>2025-11-25 03:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -660,60 +668,48 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -723,618 +719,554 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>América de Cali vs Junior FC</t>
+          <t>Atlético Bucaramanga vs Fortaleza CEIF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-11-24 01:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+          <t>2025-11-25 23:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juárez vs Pachuca</t>
+          <t>Atlético Mineiro vs Flamengo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-24 01:00:00</t>
+          <t>2025-11-26 00:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Volos NFC vs Levadiakos</t>
+          <t>Grêmio vs Palmeiras</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-11-24 16:00:00</t>
+          <t>2025-11-26 00:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir vs Trabzonspor</t>
+          <t>Santa Fe vs Deportes Tolima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-11-24 17:00:00</t>
+          <t>2025-11-26 00:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Konyaspor vs Antalyaspor</t>
+          <t>Monterrey vs América</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-11-24 17:00:00</t>
+          <t>2025-11-26 13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Torino vs Como</t>
+          <t>Guadalajara vs Cruz Azul</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-24 17:30:00</t>
+          <t>2025-11-26 13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Superliga - DNK SL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Randers FC vs Odense BK</t>
+          <t>Tijuana vs Tigres UANL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-24 18:00:00</t>
+          <t>2025-11-26 13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Larissa vs OFI</t>
+          <t>Bragantino vs Fortaleza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-24 18:00:00</t>
+          <t>2025-11-26 22:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1349,244 +1281,188 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
           <t>1.82</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Real Sociedad II vs Real Valladolid</t>
+          <t>Lanús vs Tigre</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-11-24 19:30:00</t>
+          <t>2025-11-27 00:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sassuolo vs Pisa</t>
+          <t>América de Cali vs Independiente Medellín</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-11-24 19:45:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>2025-11-27 00:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manchester United vs Everton</t>
+          <t>Atlético Nacional vs Junior FC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-11-24 20:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
+          <t>2025-11-27 01:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>1.78</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1.74</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1594,71 +1470,75 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Espanyol vs Sevilla</t>
+          <t>Fluminense vs São Paulo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-11-24 20:00:00</t>
+          <t>2025-11-27 23:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1666,31 +1546,35 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deportivo Riestra vs Barracas Central</t>
+          <t>Kocaelispor vs Gençlerbirliği</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-11-24 20:00:00</t>
+          <t>2025-11-28 17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1700,12 +1584,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1715,166 +1599,190 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mirassol vs Ceará</t>
+          <t>Schalke 04 vs Paderborn</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-11-24 22:00:00</t>
+          <t>2025-11-28 17:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Racing Club vs River Plate</t>
+          <t>Hannover 96 vs Karlsruher SC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-11-24 22:15:00</t>
+          <t>2025-11-28 17:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1882,227 +1790,287 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Superliga - DNK SL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Internacional vs Santos</t>
+          <t>Sønderjyske Fodbold vs Viborg FF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-11-25 00:00:00</t>
+          <t>2025-11-28 18:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Unión Santa Fe vs Gimnasia La Plata</t>
+          <t>PEC Zwolle vs SC Heerenveen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-11-25 01:00:00</t>
+          <t>2025-11-28 19:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Major League Soccer - USA MLS</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>San Diego vs Minnesota United</t>
+          <t>Borussia Mönchengladbach vs RB Leipzig</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-11-25 03:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>2025-11-28 19:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga vs Fortaleza CEIF</t>
+          <t>Sporting Gijón vs FC Andorra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-11-25 23:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>2025-11-28 19:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -2110,51 +2078,55 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Atlético Mineiro vs Flamengo</t>
+          <t>Como vs Sassuolo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-11-26 00:30:00</t>
+          <t>2025-11-28 19:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2169,164 +2141,188 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Grêmio vs Palmeiras</t>
+          <t>Mechelen vs Standard Liège</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-11-26 00:30:00</t>
+          <t>2025-11-28 19:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Santa Fe vs Deportes Tolima</t>
+          <t>Metz vs Rennes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-11-26 00:30:00</t>
+          <t>2025-11-28 19:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -2334,71 +2330,75 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Monterrey vs América</t>
+          <t>Getafe vs Elche</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-11-26 13:00:00</t>
+          <t>2025-11-28 20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2406,146 +2406,134 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Guadalajara vs Cruz Azul</t>
+          <t>Vitória SC vs AVS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-11-26 13:00:00</t>
+          <t>2025-11-28 20:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tijuana vs Tigres UANL</t>
+          <t>Juventude vs Bahia</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-11-26 13:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>2025-11-28 22:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2555,136 +2543,180 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bragantino vs Fortaleza</t>
+          <t>Vasco da Gama vs Internacional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-11-26 22:00:00</t>
+          <t>2025-11-28 22:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lanús vs Tigre</t>
+          <t>Santos vs Sport Recife</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-11-27 00:30:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+          <t>2025-11-29 00:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>Premier League - None</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>América de Cali vs Independiente Medellín</t>
+          <t>Akron vs FK Nizjni Novgorod</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-11-27 00:30:00</t>
+          <t>2025-11-29 11:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2702,105 +2734,149 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Atlético Nacional vs Junior FC</t>
+          <t>Academico Viseu vs Penafiel</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-11-27 01:30:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+          <t>2025-11-29 11:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fluminense vs São Paulo</t>
+          <t>Rizespor vs Kayserispor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-11-27 23:30:00</t>
+          <t>2025-11-29 11:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>1.61</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2.20</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2810,10 +2886,3958 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig vs Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-11-29 12:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Holstein Kiel vs Hertha BSC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-11-29 12:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SpVgg Greuther Fürth vs VfL Bochum 1848</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-11-29 12:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mallorca vs Osasuna</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ceuta vs Burgos</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Liga MX - MEX AL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cruz Azul vs Guadalajara</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Liga MX - MEX AL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>América vs Monterrey</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Liga MX - MEX AL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tigres UANL vs Tijuana</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Premier League - None</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CSKA Moskva vs Orenburg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Genoa vs Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Parma vs Udinese</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gaziantep F.K. vs Eyüpspor</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UD Oliveirense vs Leixões</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FC Union Berlin vs Heidenheim</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FC Bayern München vs St. Pauli</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Werder Bremen vs FC Köln</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim vs FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-11-29 14:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Brentford vs Burnley</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Manchester City vs Leeds United</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sunderland vs AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dender vs Westerlo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FC Barcelona vs Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:15:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cultural Leonesa vs Granada</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:15:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Excelsior vs NAC Breda</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Casa Pia vs Alverca</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Moreirense vs Famalicão</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>OFI vs Volos NFC</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Monaco vs Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-11-29 16:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Premier League - None</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Baltika Kaliningrad vs Spartak Moskva</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-11-29 16:30:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Juventus vs Cagliari</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:00:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Kasımpaşa vs İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Trabzonspor vs Konyaspor</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem vs Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:15:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Everton vs Newcastle United</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen vs Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Levante vs Athletic Club</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Albacete vs Deportivo La Coruña</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Almería vs Huesca</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Aris vs Larissa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Kifisia vs Panserraikos</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard vs Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-11-29 17:45:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Paris vs Auxerre</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-11-29 18:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nacional vs Benfica</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-11-29 18:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Serie A - BRA CB</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vitória vs Mirassol</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-11-29 19:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Magdeburg vs Nürnberg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-11-29 19:30:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Milan vs Lazio</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-11-29 19:45:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi vs La Louvière</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-11-29 19:45:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur vs Fulham</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-11-29 20:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen vs Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-11-29 20:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Atlético Madrid vs Real Oviedo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-11-29 20:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Real Valladolid vs Málaga</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-11-29 20:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Olympique Marseille vs Toulouse</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-11-29 20:05:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Gil Vicente vs Tondela</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-11-29 20:30:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Liga BetPlay - COL PA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Deportes Tolima vs Santa Fe</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-11-29 22:30:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Serie A - BRA CB</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Ceará vs Cruzeiro</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-11-29 23:30:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="R2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,93 +558,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sporting CP vs Estrela Amadora</t>
+          <t>Ajax vs FC Groningen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-30 18:00:00</t>
+          <t>2025-12-02 13:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
           <t>https://www.quantumodds.xyz/</t>
@@ -654,311 +638,327 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gent vs Sint-Truiden</t>
+          <t>AFC Bournemouth vs Everton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-11-30 18:15:00</t>
+          <t>2025-12-02 19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SC Freiburg vs FSV Mainz 05</t>
+          <t>Fulham vs Manchester City</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-11-30 18:30:00</t>
+          <t>2025-12-02 19:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corinthians vs Botafogo</t>
+          <t>FC Barcelona vs Atlético Madrid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-30 19:00:00</t>
+          <t>2025-12-02 20:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ajax vs FC Groningen</t>
+          <t>Newcastle United vs Tottenham Hotspur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-11-30 19:00:00</t>
+          <t>2025-12-02 20:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -974,82 +974,90 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Panathinaikos vs AEK Athens</t>
+          <t>Vasco da Gama vs Mirassol</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-11-30 19:00:00</t>
+          <t>2025-12-02 22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1058,67 +1066,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Primera Division - URY CL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nacional vs Peñarol</t>
+          <t>Grêmio vs Fluminense</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-11-30 19:30:00</t>
+          <t>2025-12-03 00:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1134,67 +1142,67 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Roma vs Napoli</t>
+          <t>Athletic Club vs Real Madrid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-30 19:45:00</t>
+          <t>2025-12-03 18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1210,67 +1218,67 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais vs Nantes</t>
+          <t>Arsenal vs Brentford</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-30 19:45:00</t>
+          <t>2025-12-03 19:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1286,182 +1294,182 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Girona vs Real Madrid</t>
+          <t>Brighton &amp; Hove Albion vs Aston Villa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-30 20:00:00</t>
+          <t>2025-12-03 19:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Castellón vs Las Palmas</t>
+          <t>Burnley vs Crystal Palace</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-11-30 20:00:00</t>
+          <t>2025-12-03 19:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
@@ -1470,219 +1478,251 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Porto vs Estoril</t>
+          <t>Wolverhampton Wanderers vs Nottingham Forest</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-11-30 20:30:00</t>
+          <t>2025-12-03 19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fortaleza vs Atlético Mineiro</t>
+          <t>Leeds United vs Chelsea</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-11-30 21:30:00</t>
+          <t>2025-12-03 20:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Boca Juniors vs Argentinos Juniors</t>
+          <t>Liverpool vs Sunderland</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-11-30 21:30:00</t>
+          <t>2025-12-03 20:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1698,52 +1738,52 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Junior FC vs Atlético Nacional</t>
+          <t>Bragantino vs Vitória</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-11-30 23:30:00</t>
+          <t>2025-12-03 22:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1753,12 +1793,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1769,19 +1809,19 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="U16" t="inlineStr"/>
@@ -1790,182 +1830,174 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cruz Azul vs Guadalajara</t>
+          <t>Fortaleza vs Corinthians</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-12-01 01:00:00</t>
+          <t>2025-12-03 22:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paços de Ferreira vs Felgueiras 1932</t>
+          <t>Juventude vs Santos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-01 14:00:00</t>
+          <t>2025-12-03 22:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2.00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1.85</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
@@ -1974,47 +2006,67 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Premier League - None</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sochi vs Dynamo Makhachkala</t>
+          <t>São Paulo vs Internacional</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-12-01 16:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>2025-12-03 23:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2030,67 +2082,67 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fenerbahçe vs Galatasaray</t>
+          <t>Bahia vs Sport Recife</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-01 17:00:00</t>
+          <t>2025-12-03 23:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2106,266 +2158,242 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Samsunspor vs Alanyaspor</t>
+          <t>Fortaleza CEIF vs Santa Fe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-12-01 17:00:00</t>
+          <t>2025-12-03 23:20:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Superliga - DNK SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Brøndby IF vs Fredericia</t>
+          <t>Atlético Mineiro vs Palmeiras</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-12-01 18:00:00</t>
+          <t>2025-12-04 00:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vizela vs Feirense</t>
+          <t>Flamengo vs Ceará</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-12-01 18:00:00</t>
+          <t>2025-12-04 00:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
@@ -2374,245 +2402,193 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bologna vs Cremonese</t>
+          <t>Cruz Azul vs Tigres UANL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-12-01 19:45:00</t>
+          <t>2025-12-04 01:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rayo Vallecano vs Valencia</t>
+          <t>Atlético Bucaramanga vs Deportes Tolima</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-01 20:00:00</t>
+          <t>2025-12-04 01:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Barracas Central vs Gimnasia La Plata</t>
+          <t>Monterrey vs Toluca</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-12-01 20:00:00</t>
+          <t>2025-12-04 03:10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -2626,144 +2602,128 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Arouca vs Sporting Braga</t>
+          <t>Manchester United vs West Ham United</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-12-01 20:15:00</t>
+          <t>2025-12-04 20:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Independiente Medellín vs América de Cali</t>
+          <t>Cruzeiro vs Botafogo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-12-02 01:00:00</t>
+          <t>2025-12-04 22:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2773,127 +2733,75 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AFC Bournemouth vs Everton</t>
+          <t>Atlético Nacional vs Independiente Medellín</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-12-02 19:30:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
+          <t>2025-12-04 23:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="U29" t="inlineStr"/>
@@ -2902,67 +2810,47 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fulham vs Manchester City</t>
+          <t>Junior FC vs América de Cali</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-12-02 19:30:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
+          <t>2025-12-05 01:35:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2978,143 +2866,123 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - None</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FC Barcelona vs Atlético Madrid</t>
+          <t>Akhmat Grozny vs Orenburg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-12-02 20:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
+          <t>2025-12-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Newcastle United vs Tottenham Hotspur</t>
+          <t>Galatasaray vs Samsunspor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-12-02 20:15:00</t>
+          <t>2025-12-05 17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -3130,22 +2998,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vasco da Gama vs Mirassol</t>
+          <t>Fortuna Düsseldorf vs Schalke 04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-12-02 22:00:00</t>
+          <t>2025-12-05 17:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3155,22 +3023,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3180,22 +3048,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -3207,13 +3067,13 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="U33" t="inlineStr"/>
@@ -3222,29 +3082,69 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga vs Deportes Tolima</t>
+          <t>Preußen Münster vs Hannover 96</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-12-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>2025-12-05 17:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -3258,29 +3158,69 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>Superliga - DNK SL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF vs Santa Fe</t>
+          <t>Fredericia vs Odense BK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-12-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>2025-12-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -3294,67 +3234,67 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Grêmio vs Fluminense</t>
+          <t>Brest vs Monaco</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-12-03 00:30:00</t>
+          <t>2025-12-05 18:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -3370,143 +3310,123 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bahia vs Sport Recife</t>
+          <t>Penafiel vs União de Leiria</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-12-03 18:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
+          <t>2025-12-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12.56</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Athletic Club vs Real Madrid</t>
+          <t>Excelsior vs FC Groningen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-12-03 18:00:00</t>
+          <t>2025-12-05 19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -3522,67 +3442,67 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Arsenal vs Brentford</t>
+          <t>FSV Mainz 05 vs Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-12-03 19:30:00</t>
+          <t>2025-12-05 19:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -3598,366 +3518,270 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion vs Aston Villa</t>
+          <t>La Louvière vs Dender</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-12-03 19:30:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
+          <t>2025-12-05 19:45:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Burnley vs Crystal Palace</t>
+          <t>LOSC Lille vs Olympique Marseille</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-12-03 19:30:00</t>
+          <t>2025-12-05 20:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers vs Nottingham Forest</t>
+          <t>Real Oviedo vs Mallorca</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-12-03 19:30:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
+          <t>2025-12-05 20:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Leeds United vs Chelsea</t>
+          <t>Benfica vs Sporting CP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-12-03 20:15:00</t>
+          <t>2025-12-05 20:15:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="U43" t="inlineStr"/>
@@ -3966,69 +3790,61 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liverpool vs Sunderland</t>
+          <t>Kashima Antlers vs Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-12-03 20:15:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -4042,129 +3858,117 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bragantino vs Vitória</t>
+          <t>Urawa Reds vs Kawasaki Frontale</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-12-03 22:00:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fortaleza vs Corinthians</t>
+          <t>Kashiwa Reysol vs Machida Zelvia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-12-03 22:00:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>1.95</t>
@@ -4179,110 +3983,130 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Juventude vs Santos</t>
+          <t>FC Tokyo vs Albirex Niigata</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-12-03 22:30:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+          <t>2025-12-06 05:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>São Paulo vs Internacional</t>
+          <t>Shimizu S-Pulse vs Fagiano Okayama</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-12-03 23:00:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4292,73 +4116,113 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Atlético Nacional vs Independiente Medellín</t>
+          <t>Nagoya Grampus vs Avispa Fukuoka</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-12-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+          <t>2025-12-06 05:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -4374,81 +4238,141 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Junior FC vs América de Cali</t>
+          <t>Kyoto Sanga vs Vissel Kobe</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-12-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+          <t>2025-12-06 05:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Atlético Mineiro vs Palmeiras</t>
+          <t>Gamba Osaka vs Tokyo Verdy</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-12-04 00:30:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -4466,106 +4390,106 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Flamengo vs Ceará</t>
+          <t>Cerezo Osaka vs Yokohama</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-12-04 00:30:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>J-League - JPN JL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manchester United vs West Ham United</t>
+          <t>Sanfrecce Hiroshima vs Shonan Bellmare</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-12-04 20:00:00</t>
+          <t>2025-12-06 05:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4575,44 +4499,36 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -4626,59 +4542,39 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Premier League - None</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cruzeiro vs Botafogo</t>
+          <t>Rostov vs Rubin Kazan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-12-04 22:30:00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
+          <t>2025-12-06 11:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -4691,6 +4587,3878 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Felgueiras 1932 vs Sporting CP II</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Eyüpspor vs Kayserispor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Kaiserslautern vs Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Paderborn vs Elversberg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VfL Bochum 1848 vs DSC Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Aston Villa vs Arsenal</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Villarreal vs Getafe</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-12-06 13:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FC Andorra vs Almería</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-12-06 13:00:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Premier League - None</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Spartak Moskva vs Dinamo Moskva</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-12-06 13:30:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sassuolo vs Fiorentina</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Konyaspor vs Rizespor</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Marítimo vs Torreense</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:00:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Heidenheim vs SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:30:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FC Köln vs St. Pauli</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:30:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FC Augsburg vs Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:30:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart vs FC Bayern München</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:30:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg vs FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:30:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth vs Chelsea</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Everton vs Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Manchester City vs Sunderland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Newcastle United vs Burnley</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur vs Brentford</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Cercle Brugge vs Standard Liège</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Olympiacos F.C. vs OFI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés vs Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:15:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Huesca vs Real Valladolid</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:15:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SC Heerenveen vs PSV</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:30:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Santa Clara vs Casa Pia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:30:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Nantes vs Lens</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-12-06 16:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Premier League - None</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zenit vs Akron</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-12-06 16:30:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Inter vs Como</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir vs Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise vs Gent</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:15:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Leeds United vs Liverpool</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:30:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RB Leipzig vs Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:30:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Real Betis vs FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:30:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Real Sociedad II vs Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:30:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard vs Ajax</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-12-06 17:45:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Toulouse vs Strasbourg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-12-06 18:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AVS vs Rio Ave</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-12-06 18:00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Benfica II vs UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-12-06 18:00:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Leixões vs Porto II</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-12-06 18:00:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Volos NFC vs Kifisia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-12-06 18:30:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Heracles Almelo vs Telstar</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-12-06 19:00:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Darmstadt 98 vs Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-12-06 19:30:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Major League Soccer - USA MLS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Inter Miami vs Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-12-06 19:30:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Hellas Verona vs Atalanta</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-12-06 19:45:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Sint-Truiden vs Club Brugge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-12-06 19:45:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Feyenoord vs PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-12-06 20:00:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Athletic Club vs Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-12-06 20:00:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain vs Rennes</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-12-06 20:05:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Famalicão vs Sporting Braga</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-12-06 20:30:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,17 +558,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marítimo vs Benfica II</t>
+          <t>Kocaelispor vs Antalyaspor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-16 17:00:00</t>
+          <t>2025-12-19 17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -578,70 +578,70 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -654,22 +654,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Liga BetPlay - COL PA</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deportes Tolima vs Junior FC</t>
+          <t>Hertha BSC vs DSC Arminia Bielefeld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-17 00:30:00</t>
+          <t>2025-12-19 17:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -679,198 +679,194 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kocaelispor vs Antalyaspor</t>
+          <t>Paderborn vs Darmstadt 98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-19 17:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2025-12-19 17:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2. Bundesliga - GER BII</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hertha BSC vs DSC Arminia Bielefeld</t>
+          <t>Borussia Dortmund vs Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-19 17:30:00</t>
+          <t>2025-12-19 19:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -886,67 +882,67 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2. Bundesliga - GER BII</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paderborn vs Darmstadt 98</t>
+          <t>SD Eibar vs Real Valladolid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-19 17:30:00</t>
+          <t>2025-12-19 19:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -962,143 +958,159 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Borussia Dortmund vs Borussia Mönchengladbach</t>
+          <t>Sporting Charleroi vs Genk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-19 19:30:00</t>
+          <t>2025-12-19 19:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SD Eibar vs Real Valladolid</t>
+          <t>Valencia vs Mallorca</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-12-19 19:30:00</t>
+          <t>2025-12-19 20:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1114,82 +1126,90 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sporting Charleroi vs Genk</t>
+          <t>Estoril vs Sporting Braga</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-19 19:45:00</t>
+          <t>2025-12-19 20:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
@@ -1198,143 +1218,159 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valencia vs Mallorca</t>
+          <t>Konyaspor vs Kayserispor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-12-19 20:00:00</t>
+          <t>2025-12-20 11:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estoril vs Sporting Braga</t>
+          <t>Kaiserslautern vs Magdeburg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-12-19 20:15:00</t>
+          <t>2025-12-20 12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1350,125 +1386,145 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lusitania FC Lourosa vs UD Oliveirense</t>
+          <t>Fortuna Düsseldorf vs SpVgg Greuther Fürth</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-12-20 11:00:00</t>
+          <t>2025-12-20 12:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Konyaspor vs Kayserispor</t>
+          <t>VfL Bochum 1848 vs Karlsruher SC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-20 11:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>2025-12-20 12:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -1482,67 +1538,67 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2. Bundesliga - GER BII</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kaiserslautern vs Magdeburg</t>
+          <t>Newcastle United vs Chelsea</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-12-20 12:00:00</t>
+          <t>2025-12-20 12:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1558,22 +1614,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2. Bundesliga - GER BII</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf vs SpVgg Greuther Fürth</t>
+          <t>Real Oviedo vs Celta de Vigo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-12-20 12:00:00</t>
+          <t>2025-12-20 13:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1583,178 +1639,210 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2. Bundesliga - GER BII</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VfL Bochum 1848 vs Karlsruher SC</t>
+          <t>FC Andorra vs Deportivo La Coruña</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-12-20 12:00:00</t>
+          <t>2025-12-20 13:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Newcastle United vs Chelsea</t>
+          <t>Eyüpspor vs Fenerbahçe</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-12-20 12:30:00</t>
+          <t>2025-12-20 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1770,146 +1858,158 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Real Oviedo vs Celta de Vigo</t>
+          <t>Asteras Tripolis vs Aris</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-20 13:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>2025-12-20 14:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FC Andorra vs Deportivo La Coruña</t>
+          <t>Chaves vs Portimonense SAD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-12-20 13:00:00</t>
+          <t>2025-12-20 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
@@ -1918,117 +2018,161 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Eyüpspor vs Fenerbahçe</t>
+          <t>FC Köln vs FC Union Berlin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-20 14:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>2025-12-20 14:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Asteras Tripolis vs Aris</t>
+          <t>FC Augsburg vs Werder Bremen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-12-20 14:00:00</t>
+          <t>2025-12-20 14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -2042,84 +2186,76 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chaves vs Portimonense SAD</t>
+          <t>Hamburger SV vs Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-12-20 14:00:00</t>
+          <t>2025-12-20 14:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
     </row>
@@ -2131,7 +2267,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FC Köln vs FC Union Berlin</t>
+          <t>VfB Stuttgart vs TSG Hoffenheim</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2141,77 +2277,61 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
     </row>
@@ -2223,7 +2343,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FC Augsburg vs Werder Bremen</t>
+          <t>VfL Wolfsburg vs SC Freiburg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2233,128 +2353,144 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hamburger SV vs Eintracht Frankfurt</t>
+          <t>AFC Bournemouth vs Burnley</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-20 14:30:00</t>
+          <t>2025-12-20 15:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -2370,153 +2506,185 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VfB Stuttgart vs TSG Hoffenheim</t>
+          <t>Brighton &amp; Hove Albion vs Sunderland</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-12-20 14:30:00</t>
+          <t>2025-12-20 15:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VfL Wolfsburg vs SC Freiburg</t>
+          <t>Manchester City vs West Ham United</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-12-20 14:30:00</t>
+          <t>2025-12-20 15:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2527,7 +2695,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AFC Bournemouth vs Burnley</t>
+          <t>Wolverhampton Wanderers vs Brentford</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2537,73 +2705,89 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion vs Sunderland</t>
+          <t>Dender vs Standard Liège</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2613,32 +2797,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2653,35 +2837,35 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="U29" t="inlineStr"/>
@@ -2690,144 +2874,144 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Manchester City vs West Ham United</t>
+          <t>Levante vs Real Sociedad</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-12-20 15:00:00</t>
+          <t>2025-12-20 15:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers vs Brentford</t>
+          <t>Huesca vs Racing Santander</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-12-20 15:00:00</t>
+          <t>2025-12-20 15:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2837,232 +3021,220 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dender vs Standard Liège</t>
+          <t>Heracles Almelo vs SC Heerenveen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-12-20 15:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+          <t>2025-12-20 15:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Levante vs Real Sociedad</t>
+          <t>Feirense vs Paços de Ferreira</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-12-20 15:15:00</t>
+          <t>2025-12-20 15:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Huesca vs Racing Santander</t>
+          <t>Vizela vs Academico Viseu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-12-20 15:15:00</t>
+          <t>2025-12-20 15:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3075,8 +3247,16 @@
           <t>1.83</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -3090,61 +3270,69 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Heracles Almelo vs SC Heerenveen</t>
+          <t>Volos NFC vs Panaitolikos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-12-20 15:30:00</t>
+          <t>2025-12-20 16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -3158,129 +3346,161 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Feirense vs Paços de Ferreira</t>
+          <t>Lazio vs Cremonese</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-12-20 15:30:00</t>
+          <t>2025-12-20 17:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Super Lig - TUR SL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vizela vs Academico Viseu</t>
+          <t>Beşiktaş vs Rizespor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-12-20 15:30:00</t>
+          <t>2025-12-20 17:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -3294,105 +3514,121 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Volos NFC vs Panaitolikos</t>
+          <t>Westerlo vs La Louvière</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-12-20 16:00:00</t>
+          <t>2025-12-20 17:15:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lazio vs Cremonese</t>
+          <t>Tottenham Hotspur vs Liverpool</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-12-20 17:00:00</t>
+          <t>2025-12-20 17:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3402,99 +3638,103 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Super Lig - TUR SL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Beşiktaş vs Rizespor</t>
+          <t>RB Leipzig vs Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-12-20 17:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+          <t>2025-12-20 17:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -3510,41 +3750,69 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Westerlo vs La Louvière</t>
+          <t>Osasuna vs Deportivo Alavés</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-12-20 17:15:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+          <t>2025-12-20 17:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -3558,12 +3826,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur vs Liverpool</t>
+          <t>Leganés vs Sporting Gijón</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3573,52 +3841,52 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -3634,27 +3902,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RB Leipzig vs Bayer 04 Leverkusen</t>
+          <t>Excelsior vs PEC Zwolle</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-12-20 17:30:00</t>
+          <t>2025-12-20 17:45:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3664,37 +3932,37 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3710,137 +3978,161 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Osasuna vs Deportivo Alavés</t>
+          <t>Gil Vicente vs Rio Ave</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-12-20 17:30:00</t>
+          <t>2025-12-20 18:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Leganés vs Sporting Gijón</t>
+          <t>Olympiacos F.C. vs Kifisia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-12-20 17:30:00</t>
+          <t>2025-12-20 18:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -3859,138 +4151,154 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Excelsior vs PEC Zwolle</t>
+          <t>NEC Nijmegen vs Ajax</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-12-20 17:45:00</t>
+          <t>2025-12-20 19:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>2. Bundesliga - GER BII</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gil Vicente vs Rio Ave</t>
+          <t>Holstein Kiel vs Dynamo Dresden</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-12-20 18:00:00</t>
+          <t>2025-12-20 19:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -4006,41 +4314,69 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Olympiacos F.C. vs Kifisia</t>
+          <t>Juventus vs Roma</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-12-20 18:30:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+          <t>2025-12-20 19:45:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -4054,164 +4390,156 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NEC Nijmegen vs Ajax</t>
+          <t>Union Saint-Gilloise vs Zulte-Waregem</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-12-20 19:00:00</t>
+          <t>2025-12-20 19:45:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2. Bundesliga - GER BII</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Holstein Kiel vs Dynamo Dresden</t>
+          <t>Everton vs Arsenal</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-12-20 19:30:00</t>
+          <t>2025-12-20 20:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
@@ -4222,137 +4550,161 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Juventus vs Roma</t>
+          <t>Leeds United vs Crystal Palace</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-12-20 19:45:00</t>
+          <t>2025-12-20 20:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise vs Zulte-Waregem</t>
+          <t>NAC Breda vs Telstar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-12-20 19:45:00</t>
+          <t>2025-12-20 20:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
@@ -4366,12 +4718,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Everton vs Arsenal</t>
+          <t>Real Madrid vs Sevilla</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4381,81 +4733,89 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leeds United vs Crystal Palace</t>
+          <t>Las Palmas vs Cultural Leonesa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4465,138 +4825,130 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NAC Breda vs Telstar</t>
+          <t>Estrela Amadora vs Moreirense</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-12-20 20:00:00</t>
+          <t>2025-12-20 20:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -4610,159 +4962,151 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Real Madrid vs Sevilla</t>
+          <t>Felgueiras 1932 vs Porto II</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-12-20 20:00:00</t>
+          <t>2025-12-21 11:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Palmas vs Cultural Leonesa</t>
+          <t>FC Utrecht vs PSV</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-12-20 20:00:00</t>
+          <t>2025-12-21 11:15:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -4778,22 +5122,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Estrela Amadora vs Moreirense</t>
+          <t>Cagliari vs Pisa</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-12-20 20:30:00</t>
+          <t>2025-12-21 11:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4803,42 +5147,42 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -4851,6 +5195,3886 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Alanyaspor vs Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-12-21 11:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Club Brugge vs Gent</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-12-21 12:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nürnberg vs Hannover 96</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-12-21 12:30:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig vs Schalke 04</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-12-21 12:30:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Preußen Münster vs Elversberg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-12-21 12:30:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Girona vs Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-12-21 13:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Málaga vs Almería</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-12-21 13:00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Feyenoord vs FC Twente</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-12-21 13:30:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles vs FC Groningen</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-12-21 13:30:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sassuolo vs Torino</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-12-21 14:00:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Leixões vs Marítimo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-12-21 14:00:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FSV Mainz 05 vs St. Pauli</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-12-21 14:30:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sint-Truiden vs Mechelen</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:00:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Villarreal vs FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:15:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Mirandés vs Córdoba</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:15:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Real Sociedad II vs Ceuta</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:15:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AVS vs Nacional</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:30:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Larissa vs Atromitos</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:30:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Farense vs União de Leiria</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:30:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FC Volendam vs Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:45:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard vs AZ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-12-21 15:45:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Aston Villa vs Manchester United</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-12-21 16:30:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Heidenheim vs FC Bayern München</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-12-21 16:30:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fiorentina vs Udinese</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Galatasaray vs Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Göztepe vs Samsunspor</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Antwerp vs Anderlecht</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Elche vs Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Burgos vs Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Granada vs Albacete</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PAOK vs Panathinaikos</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-12-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Tondela vs Casa Pia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-12-21 18:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Penafiel vs Torreense</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-12-21 18:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>OH Leuven vs Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-12-21 18:15:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AEK Athens vs OFI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-12-21 19:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Genoa vs Atalanta</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-12-21 19:45:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Real Betis vs Getafe</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-12-21 20:00:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cádiz vs Castellón</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-12-21 20:00:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Santa Clara vs Arouca</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-12-21 20:30:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir vs Gaziantep F.K.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-12-22 14:00:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Panserraikos vs Levadiakos</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-12-22 16:00:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Super Lig - TUR SL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği vs Trabzonspor</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-12-22 17:00:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Benfica II vs Sporting CP II</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-12-22 18:00:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Alverca vs Porto</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-12-22 18:45:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Athletic Club vs Espanyol</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:00:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fulham vs Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:00:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Benfica vs Famalicão</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:45:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lusitania FC Lourosa vs UD Oliveirense</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-12-22 20:45:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,92 +558,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitória Guimarães vs Sporting CP</t>
+          <t>Genk vs Club Brugge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-23 20:45:00</t>
+          <t>2025-12-26 12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -659,163 +643,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Fayha vs Al Hazm</t>
+          <t>Al Fateh vs Al Ahli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-25 14:50:00</t>
+          <t>2025-12-26 13:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NEOM SC vs Al Najma</t>
+          <t>Cercle Brugge vs Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-25 17:30:00</t>
+          <t>2025-12-26 15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
@@ -827,12 +803,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al Riyadh vs Al Ettifaq</t>
+          <t>Al Kholood vs Al Taawoun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-25 17:30:00</t>
+          <t>2025-12-26 15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -847,57 +823,65 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -911,63 +895,87 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genk vs Club Brugge</t>
+          <t>Standard Liège vs Sint-Truiden</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-26 12:30:00</t>
+          <t>2025-12-26 17:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
     </row>
@@ -979,64 +987,88 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Al Fateh vs Al Ahli</t>
+          <t>Al Hilal vs Al Khaleej</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-26 13:05:00</t>
+          <t>2025-12-26 17:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1047,17 +1079,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cercle Brugge vs Union Saint-Gilloise</t>
+          <t>Anderlecht vs Sporting Charleroi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-12-26 15:00:00</t>
+          <t>2025-12-26 19:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1067,65 +1099,65 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1134,277 +1166,229 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Al Kholood vs Al Taawoun</t>
+          <t>Manchester United vs Newcastle United</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-26 15:00:00</t>
+          <t>2025-12-26 20:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Standard Liège vs Sint-Truiden</t>
+          <t>Parma vs Fiorentina</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-12-26 17:30:00</t>
+          <t>2025-12-27 11:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>1.90</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Al Hilal vs Al Khaleej</t>
+          <t>Nottingham Forest vs Manchester City</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-12-26 17:30:00</t>
+          <t>2025-12-27 12:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1415,85 +1399,85 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anderlecht vs Sporting Charleroi</t>
+          <t>Antwerp vs Zulte-Waregem</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-12-26 19:45:00</t>
+          <t>2025-12-27 12:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
@@ -1502,69 +1486,61 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manchester United vs Newcastle United</t>
+          <t>Al-Qadsiah vs Damac FC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-26 20:00:00</t>
+          <t>2025-12-27 13:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -1583,62 +1559,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parma vs Fiorentina</t>
+          <t>Lecce vs Como</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-12-27 11:30:00</t>
+          <t>2025-12-27 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1654,67 +1630,67 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nottingham Forest vs Manchester City</t>
+          <t>Torino vs Cagliari</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-12-27 12:30:00</t>
+          <t>2025-12-27 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1730,131 +1706,131 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Antwerp vs Zulte-Waregem</t>
+          <t>Al Nassr vs Al Akhdoud</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-12-27 12:30:00</t>
+          <t>2025-12-27 14:50:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Al-Qadsiah vs Damac FC</t>
+          <t>Arsenal vs Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-12-27 13:00:00</t>
+          <t>2025-12-27 15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1864,11 +1840,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1882,67 +1866,67 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lecce vs Como</t>
+          <t>Brentford vs AFC Bournemouth</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-27 14:00:00</t>
+          <t>2025-12-27 15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1958,47 +1942,47 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Torino vs Cagliari</t>
+          <t>Burnley vs Everton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-12-27 14:00:00</t>
+          <t>2025-12-27 15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2034,73 +2018,73 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Al Nassr vs Al Akhdoud</t>
+          <t>Liverpool vs Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-27 14:50:00</t>
+          <t>2025-12-27 15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -2115,7 +2099,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arsenal vs Brighton &amp; Hove Albion</t>
+          <t>West Ham United vs Fulham</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2125,73 +2109,89 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Brentford vs AFC Bournemouth</t>
+          <t>La Louvière vs OH Leuven</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2201,27 +2201,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2231,24 +2231,16 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -2262,67 +2254,67 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Burnley vs Everton</t>
+          <t>Udinese vs Lazio</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-27 17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -2338,76 +2330,84 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liverpool vs Wolverhampton Wanderers</t>
+          <t>Mechelen vs Dender</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-27 17:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
@@ -2419,128 +2419,140 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>West Ham United vs Fulham</t>
+          <t>Chelsea vs Aston Villa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-27 17:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La Louvière vs OH Leuven</t>
+          <t>Al Ittihad vs Al Shabab</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>2025-12-27 17:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -2554,47 +2566,47 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Udinese vs Lazio</t>
+          <t>Famalicão vs Estrela Amadora</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-12-27 17:00:00</t>
+          <t>2025-12-27 18:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2607,69 +2619,129 @@
           <t>1.95</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mechelen vs Dender</t>
+          <t>Pisa vs Juventus</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-12-27 17:15:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+          <t>2025-12-27 19:45:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="U28" t="inlineStr"/>
@@ -2678,67 +2750,67 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - BEL FDA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chelsea vs Aston Villa</t>
+          <t>Gent vs Westerlo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-12-27 17:30:00</t>
+          <t>2025-12-27 19:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2754,61 +2826,69 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Al Ittihad vs Al Shabab</t>
+          <t>Estoril vs Alverca</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-12-27 17:30:00</t>
+          <t>2025-12-27 20:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2822,67 +2902,67 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Famalicão vs Estrela Amadora</t>
+          <t>Academico Viseu vs Benfica II</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-12-27 18:00:00</t>
+          <t>2025-12-28 11:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2893,19 +2973,19 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="U31" t="inlineStr"/>
@@ -2919,42 +2999,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pisa vs Juventus</t>
+          <t>Milan vs Hellas Verona</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-12-27 19:45:00</t>
+          <t>2025-12-28 11:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2969,35 +3049,35 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -3006,135 +3086,159 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gent vs Westerlo</t>
+          <t>Cremonese vs Napoli</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-12-27 19:45:00</t>
+          <t>2025-12-28 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Estoril vs Alverca</t>
+          <t>Sunderland vs Leeds United</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-12-27 20:30:00</t>
+          <t>2025-12-28 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3147,6 +3251,966 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira vs Farense</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-12-28 14:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Casa Pia vs Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-12-28 15:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Arouca vs Gil Vicente</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-12-28 15:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Crystal Palace vs Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-12-28 16:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bologna vs Sassuolo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-12-28 17:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sporting Braga vs Benfica</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-12-28 18:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Atalanta vs Inter</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-12-28 19:45:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sporting CP vs Rio Ave</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-12-28 20:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Al Khaleej vs Al Fateh</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-12-29 14:35:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Al Taawoun vs Al Najma</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-12-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Al Riyadh vs Al Hazm</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-12-29 17:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Roma vs Genoa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-12-29 19:45:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Porto vs AVS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-12-29 20:15:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,76 +558,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genk vs Club Brugge</t>
+          <t>Academico Viseu vs Benfica II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-26 12:30:00</t>
+          <t>2025-12-28 11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -638,158 +654,182 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al Fateh vs Al Ahli</t>
+          <t>Milan vs Hellas Verona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-26 13:05:00</t>
+          <t>2025-12-28 11:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cercle Brugge vs Union Saint-Gilloise</t>
+          <t>Cremonese vs Napoli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-26 15:00:00</t>
+          <t>2025-12-28 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -798,323 +838,275 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al Kholood vs Al Taawoun</t>
+          <t>Sunderland vs Leeds United</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-26 15:00:00</t>
+          <t>2025-12-28 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Standard Liège vs Sint-Truiden</t>
+          <t>Paços de Ferreira vs Farense</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-26 17:30:00</t>
+          <t>2025-12-28 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Al Hilal vs Al Khaleej</t>
+          <t>Casa Pia vs Vitória Guimarães</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-26 17:30:00</t>
+          <t>2025-12-28 15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anderlecht vs Sporting Charleroi</t>
+          <t>Arouca vs Gil Vicente</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-12-26 19:45:00</t>
+          <t>2025-12-28 15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1129,37 +1121,21 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
     </row>
@@ -1171,71 +1147,87 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manchester United vs Newcastle United</t>
+          <t>Crystal Palace vs Tottenham Hotspur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-26 20:00:00</t>
+          <t>2025-12-28 16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
@@ -1247,42 +1239,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parma vs Fiorentina</t>
+          <t>Bologna vs Sassuolo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-12-27 11:30:00</t>
+          <t>2025-12-28 17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1297,324 +1289,372 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nottingham Forest vs Manchester City</t>
+          <t>Sporting Braga vs Benfica</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-12-27 12:30:00</t>
+          <t>2025-12-28 18:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Antwerp vs Zulte-Waregem</t>
+          <t>Atalanta vs Inter</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-12-27 12:30:00</t>
+          <t>2025-12-28 19:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Al-Qadsiah vs Damac FC</t>
+          <t>Sporting CP vs Rio Ave</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-27 13:00:00</t>
+          <t>2025-12-28 20:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lecce vs Como</t>
+          <t>Al Khaleej vs Al Fateh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-12-27 14:00:00</t>
+          <t>2025-12-29 14:35:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1630,67 +1670,67 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Torino vs Cagliari</t>
+          <t>Al Taawoun vs Al Najma</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-12-27 14:00:00</t>
+          <t>2025-12-29 17:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1711,146 +1751,154 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Al Nassr vs Al Akhdoud</t>
+          <t>Al Riyadh vs Al Hazm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-12-27 14:50:00</t>
+          <t>2025-12-29 17:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arsenal vs Brighton &amp; Hove Albion</t>
+          <t>Roma vs Genoa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-29 19:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1866,67 +1914,67 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Brentford vs AFC Bournemouth</t>
+          <t>Porto vs AVS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-29 20:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>25.32</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1934,57 +1982,53 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Burnley vs Everton</t>
+          <t>Al Ahli vs Al-Fayha</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-30 15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>1.80</t>
@@ -1992,19 +2036,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2018,148 +2054,148 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liverpool vs Wolverhampton Wanderers</t>
+          <t>Al Ettifaq vs Al Nassr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-30 17:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>West Ham United vs Fulham</t>
+          <t>Al Akhdoud vs Damac FC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-30 17:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2169,81 +2205,89 @@
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>La Louvière vs OH Leuven</t>
+          <t>Burnley vs Newcastle United</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-12-27 15:00:00</t>
+          <t>2025-12-30 19:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2254,67 +2298,67 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Udinese vs Lazio</t>
+          <t>Chelsea vs AFC Bournemouth</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-12-27 17:00:00</t>
+          <t>2025-12-30 19:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -2330,17 +2374,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mechelen vs Dender</t>
+          <t>Nottingham Forest vs Everton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-12-27 17:15:00</t>
+          <t>2025-12-30 19:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2350,64 +2394,56 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
@@ -2419,52 +2455,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chelsea vs Aston Villa</t>
+          <t>West Ham United vs Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-27 17:30:00</t>
+          <t>2025-12-30 19:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2474,7 +2510,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -2490,258 +2526,242 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Al Ittihad vs Al Shabab</t>
+          <t>Arsenal vs Aston Villa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-12-27 17:30:00</t>
+          <t>2025-12-30 20:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Famalicão vs Estrela Amadora</t>
+          <t>Manchester United vs Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-12-27 18:00:00</t>
+          <t>2025-12-30 20:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pisa vs Juventus</t>
+          <t>Torreense vs Lusitania FC Lourosa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-12-27 19:45:00</t>
+          <t>2025-12-30 20:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="U28" t="inlineStr"/>
@@ -2750,69 +2770,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pro League - BEL FDA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gent vs Westerlo</t>
+          <t>NEOM SC vs Al Ittihad</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-12-27 19:45:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
+          <t>2025-12-31 15:25:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -2826,69 +2818,61 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Estoril vs Alverca</t>
+          <t>Al Shabab vs Al-Qadsiah</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-12-27 20:30:00</t>
+          <t>2025-12-31 17:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2902,182 +2886,158 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Academico Viseu vs Benfica II</t>
+          <t>Al Kholood vs Al Hilal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-12-28 11:00:00</t>
+          <t>2025-12-31 17:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Milan vs Hellas Verona</t>
+          <t>Crystal Palace vs Fulham</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-12-28 11:30:00</t>
+          <t>2026-01-01 17:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -3086,92 +3046,76 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cremonese vs Napoli</t>
+          <t>Liverpool vs Leeds United</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-12-28 14:00:00</t>
+          <t>2026-01-01 17:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
@@ -3183,132 +3127,148 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sunderland vs Leeds United</t>
+          <t>Brentford vs Tottenham Hotspur</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-12-28 14:00:00</t>
+          <t>2026-01-01 20:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Paços de Ferreira vs Farense</t>
+          <t>Sunderland vs Manchester City</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-12-28 14:00:00</t>
+          <t>2026-01-01 20:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -3319,898 +3279,6 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Liga Portugal - PRT PL</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Casa Pia vs Vitória Guimarães</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-12-28 15:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Liga Portugal - PRT PL</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Arouca vs Gil Vicente</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-12-28 15:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Crystal Palace vs Tottenham Hotspur</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-12-28 16:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Bologna vs Sassuolo</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-12-28 17:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Liga Portugal - PRT PL</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sporting Braga vs Benfica</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-12-28 18:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Atalanta vs Inter</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-12-28 19:45:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Liga Portugal - PRT PL</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Sporting CP vs Rio Ave</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-12-28 20:30:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Pro League - SAU PL</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Al Khaleej vs Al Fateh</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-12-29 14:35:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Pro League - SAU PL</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Al Taawoun vs Al Najma</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2025-12-29 17:30:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Pro League - SAU PL</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Al Riyadh vs Al Hazm</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2025-12-29 17:30:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Roma vs Genoa</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2025-12-29 19:45:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Liga Portugal - PRT PL</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Porto vs AVS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2025-12-29 20:15:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,92 +558,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Academico Viseu vs Benfica II</t>
+          <t>NEOM SC vs Al Ittihad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-28 11:00:00</t>
+          <t>2025-12-31 15:25:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -654,90 +638,82 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milan vs Hellas Verona</t>
+          <t>Al Shabab vs Al-Qadsiah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-28 11:30:00</t>
+          <t>2025-12-31 17:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -746,93 +722,93 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cremonese vs Napoli</t>
+          <t>Al Kholood vs Al Hilal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-28 14:00:00</t>
+          <t>2025-12-31 17:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>6.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -843,138 +819,154 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sunderland vs Leeds United</t>
+          <t>Crystal Palace vs Fulham</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-28 14:00:00</t>
+          <t>2026-01-01 17:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paços de Ferreira vs Farense</t>
+          <t>Liverpool vs Leeds United</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-28 14:00:00</t>
+          <t>2026-01-01 17:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -990,143 +982,159 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Casa Pia vs Vitória Guimarães</t>
+          <t>Brentford vs Tottenham Hotspur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-28 15:30:00</t>
+          <t>2026-01-01 20:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arouca vs Gil Vicente</t>
+          <t>Sunderland vs Manchester City</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-12-28 15:30:00</t>
+          <t>2026-01-01 20:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1142,109 +1150,93 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Crystal Palace vs Tottenham Hotspur</t>
+          <t>Al Najma vs Al Khaleej</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-28 16:30:00</t>
+          <t>2026-01-02 13:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bologna vs Sassuolo</t>
+          <t>Al Ettifaq vs Al Akhdoud</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-12-28 17:00:00</t>
+          <t>2026-01-02 14:35:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1254,231 +1246,171 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sporting Braga vs Benfica</t>
+          <t>Al Ahli vs Al Nassr</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-12-28 18:00:00</t>
+          <t>2026-01-02 17:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Atalanta vs Inter</t>
+          <t>Gil Vicente vs Sporting CP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-12-28 19:45:00</t>
+          <t>2026-01-02 18:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1493,412 +1425,420 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sporting CP vs Rio Ave</t>
+          <t>SD Eibar vs Mirandés</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-28 20:30:00</t>
+          <t>2026-01-02 19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Al Khaleej vs Al Fateh</t>
+          <t>Cagliari vs Milan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-12-29 14:35:00</t>
+          <t>2026-01-02 19:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Al Taawoun vs Al Najma</t>
+          <t>Toulouse vs Lens</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-12-29 17:30:00</t>
+          <t>2026-01-02 19:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Al Riyadh vs Al Hazm</t>
+          <t>Rayo Vallecano vs Getafe</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-12-29 17:30:00</t>
+          <t>2026-01-02 20:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Roma vs Genoa</t>
+          <t>Vitória Guimarães vs Nacional</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-12-29 19:45:00</t>
+          <t>2026-01-02 20:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1914,124 +1854,128 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Porto vs AVS</t>
+          <t>Feirense vs União de Leiria</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-29 20:15:00</t>
+          <t>2026-01-03 11:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25.32</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al Ahli vs Al-Fayha</t>
+          <t>Como vs Udinese</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-12-30 15:30:00</t>
+          <t>2026-01-03 11:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2039,62 +1983,86 @@
           <t>1.90</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Al Ettifaq vs Al Nassr</t>
+          <t>Aston Villa vs Nottingham Forest</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-30 17:30:00</t>
+          <t>2026-01-03 12:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2104,58 +2072,74 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al Akhdoud vs Damac FC</t>
+          <t>Celta de Vigo vs Valencia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-12-30 17:30:00</t>
+          <t>2026-01-03 13:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2165,12 +2149,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2180,114 +2164,114 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Burnley vs Newcastle United</t>
+          <t>Cultural Leonesa vs Real Sociedad II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-12-30 19:30:00</t>
+          <t>2026-01-03 13:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2298,69 +2282,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chelsea vs AFC Bournemouth</t>
+          <t>Al Fateh vs Al Shabab</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-12-30 19:30:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
+          <t>2026-01-03 13:10:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -2374,67 +2318,67 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nottingham Forest vs Everton</t>
+          <t>Genoa vs Pisa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-12-30 19:30:00</t>
+          <t>2026-01-03 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -2450,237 +2394,189 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>West Ham United vs Brighton &amp; Hove Albion</t>
+          <t>Sassuolo vs Parma</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-12-30 19:30:00</t>
+          <t>2026-01-03 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arsenal vs Aston Villa</t>
+          <t>Felgueiras 1932 vs UD Oliveirense</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-12-30 20:15:00</t>
+          <t>2026-01-03 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Manchester United vs Wolverhampton Wanderers</t>
+          <t>Al-Fayha vs Al Kholood</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-12-30 20:15:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+          <t>2026-01-03 14:55:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -2694,52 +2590,52 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Torreense vs Lusitania FC Lourosa</t>
+          <t>Brighton &amp; Hove Albion vs Burnley</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-12-30 20:15:00</t>
+          <t>2026-01-03 15:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2747,132 +2643,192 @@
           <t>1.80</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NEOM SC vs Al Ittihad</t>
+          <t>Wolverhampton Wanderers vs West Ham United</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-12-31 15:25:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>2026-01-03 15:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Al Shabab vs Al-Qadsiah</t>
+          <t>Osasuna vs Athletic Club</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-12-31 17:30:00</t>
+          <t>2026-01-03 15:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2886,158 +2842,174 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Al Kholood vs Al Hilal</t>
+          <t>Almería vs Granada</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-12-31 17:30:00</t>
+          <t>2026-01-03 15:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Crystal Palace vs Fulham</t>
+          <t>Castellón vs Huesca</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-01-01 17:30:00</t>
+          <t>2026-01-03 15:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -3046,238 +3018,3738 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liverpool vs Leeds United</t>
+          <t>Tondela vs Arouca</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-01-01 17:30:00</t>
+          <t>2026-01-03 15:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Brentford vs Tottenham Hotspur</t>
+          <t>Monaco vs Olympique Lyonnais</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-01-01 20:00:00</t>
+          <t>2026-01-03 16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sunderland vs Manchester City</t>
+          <t>Juventus vs Lecce</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-01-01 20:00:00</t>
+          <t>2026-01-03 17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth vs Arsenal</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-01-03 17:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Elche vs Villarreal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-01-03 17:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Real Valladolid vs Racing Santander</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-01-03 17:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Al Ittihad vs Al Taawoun</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-01-03 17:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nice vs Strasbourg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-01-03 18:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Estrela Amadora vs Sporting Braga</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-01-03 18:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Benfica vs Estoril</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-01-03 18:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Atalanta vs Roma</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-01-03 19:45:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Espanyol vs FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-01-03 20:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Córdoba vs Burgos</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-01-03 20:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LOSC Lille vs Rennes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-01-03 20:05:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AVS vs Moreirense</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2026-01-03 20:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Farense vs Portimonense SAD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2026-01-03 20:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Penafiel vs Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-01-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sporting CP II vs Academico Viseu</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-01-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Lazio vs Napoli</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-01-04 11:30:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Leeds United vs Manchester United</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-04 12:30:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sevilla vs Levante</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-01-04 13:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sporting Gijón vs Málaga</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2026-01-04 13:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fiorentina vs Cremonese</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2026-01-04 14:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Olympique Marseille vs Nantes</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2026-01-04 14:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Everton vs Brentford</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fulham vs Liverpool</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Newcastle United vs Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur vs Sunderland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Al Hazm vs NEOM SC</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:05:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Real Madrid vs Real Betis</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:15:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ceuta vs FC Andorra</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:15:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rio Ave vs Casa Pia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2026-01-04 15:30:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Le Havre vs Angers SCO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2026-01-04 16:15:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lorient vs Metz</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2026-01-04 16:15:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Brest vs Auxerre</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2026-01-04 16:15:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hellas Verona vs Torino</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:00:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Manchester City vs Chelsea</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés vs Real Oviedo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mallorca vs Girona</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Albacete vs Leganés</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Real Zaragoza vs Las Palmas</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Damac FC vs Al Hilal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Al-Qadsiah vs Al Riyadh</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2026-01-04 17:30:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Santa Clara vs Porto</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2026-01-04 18:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Inter vs Bologna</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2026-01-04 19:45:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain vs Paris</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2026-01-04 19:45:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Real Sociedad vs Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026-01-04 20:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruña vs Cádiz</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2026-01-04 20:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Alverca vs Famalicão</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2026-01-04 20:30:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,76 +558,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NEOM SC vs Al Ittihad</t>
+          <t>Feirense vs União de Leiria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-12-31 15:25:00</t>
+          <t>2026-01-03 11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>3.13</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -638,82 +646,90 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al Shabab vs Al-Qadsiah</t>
+          <t>Como vs Udinese</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-31 17:30:00</t>
+          <t>2026-01-03 11:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>4.75</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -722,182 +738,182 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Kholood vs Al Hilal</t>
+          <t>Aston Villa vs Nottingham Forest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-31 17:30:00</t>
+          <t>2026-01-03 12:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crystal Palace vs Fulham</t>
+          <t>Celta de Vigo vs Valencia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-01 17:30:00</t>
+          <t>2026-01-03 13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -906,67 +922,67 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liverpool vs Leeds United</t>
+          <t>Cultural Leonesa vs Real Sociedad II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-01 17:30:00</t>
+          <t>2026-01-03 13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -982,159 +998,143 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brentford vs Tottenham Hotspur</t>
+          <t>Al Fateh vs Al Shabab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-01 20:00:00</t>
+          <t>2026-01-03 13:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sunderland vs Manchester City</t>
+          <t>Genoa vs Pisa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-01 20:00:00</t>
+          <t>2026-01-03 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1150,132 +1150,176 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Al Najma vs Al Khaleej</t>
+          <t>Sassuolo vs Parma</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-01-02 13:30:00</t>
+          <t>2026-01-03 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Al Ettifaq vs Al Akhdoud</t>
+          <t>Felgueiras 1932 vs UD Oliveirense</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-01-02 14:35:00</t>
+          <t>2026-01-03 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
@@ -1287,130 +1331,154 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Al Ahli vs Al Nassr</t>
+          <t>Al-Fayha vs Al Kholood</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-01-02 17:30:00</t>
+          <t>2026-01-03 14:55:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3.80</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gil Vicente vs Sporting CP</t>
+          <t>Brighton &amp; Hove Albion vs Burnley</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-01-02 18:45:00</t>
+          <t>2026-01-03 15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>7.00</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1425,150 +1493,158 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SD Eibar vs Mirandés</t>
+          <t>Wolverhampton Wanderers vs West Ham United</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-01-02 19:30:00</t>
+          <t>2026-01-03 15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cagliari vs Milan</t>
+          <t>Osasuna vs Athletic Club</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-01-02 19:45:00</t>
+          <t>2026-01-03 15:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1581,76 +1657,60 @@
           <t>2.01</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Toulouse vs Lens</t>
+          <t>Almería vs Granada</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-01-02 19:45:00</t>
+          <t>2026-01-03 15:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1660,40 +1720,40 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="U15" t="inlineStr"/>
@@ -1702,76 +1762,92 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rayo Vallecano vs Getafe</t>
+          <t>Castellón vs Huesca</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-01-02 20:00:00</t>
+          <t>2026-01-03 15:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
@@ -1783,147 +1859,163 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vitória Guimarães vs Nacional</t>
+          <t>Tondela vs Arouca</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-01-02 20:45:00</t>
+          <t>2026-01-03 15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Feirense vs União de Leiria</t>
+          <t>Monaco vs Olympique Lyonnais</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-01-03 11:00:00</t>
+          <t>2026-01-03 16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
@@ -1935,85 +2027,85 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Como vs Udinese</t>
+          <t>Juventus vs Lecce</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-01-03 11:30:00</t>
+          <t>2026-01-03 17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
@@ -2027,57 +2119,57 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aston Villa vs Nottingham Forest</t>
+          <t>AFC Bournemouth vs Arsenal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-01-03 12:30:00</t>
+          <t>2026-01-03 17:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2085,29 +2177,13 @@
           <t>1.78</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
@@ -2119,85 +2195,85 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Celta de Vigo vs Valencia</t>
+          <t>Elche vs Villarreal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-01-03 13:00:00</t>
+          <t>2026-01-03 17:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="U21" t="inlineStr"/>
@@ -2211,62 +2287,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cultural Leonesa vs Real Sociedad II</t>
+          <t>Real Valladolid vs Racing Santander</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-01-03 13:00:00</t>
+          <t>2026-01-03 17:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2287,189 +2363,269 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Al Fateh vs Al Shabab</t>
+          <t>Al Ittihad vs Al Taawoun</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-03 13:10:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>2026-01-03 17:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Genoa vs Pisa</t>
+          <t>Nice vs Strasbourg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-01-03 14:00:00</t>
+          <t>2026-01-03 18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sassuolo vs Parma</t>
+          <t>Estrela Amadora vs Sporting Braga</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-01-03 14:00:00</t>
+          <t>2026-01-03 18:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="U25" t="inlineStr"/>
@@ -2478,72 +2634,72 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Felgueiras 1932 vs UD Oliveirense</t>
+          <t>Benfica vs Estoril</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-01-03 14:00:00</t>
+          <t>2026-01-03 18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
           <t>2.00</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -2554,279 +2710,327 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Al-Fayha vs Al Kholood</t>
+          <t>Atalanta vs Roma</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-01-03 14:55:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+          <t>2026-01-03 19:45:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion vs Burnley</t>
+          <t>Espanyol vs FC Barcelona</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-01-03 15:00:00</t>
+          <t>2026-01-03 20:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers vs West Ham United</t>
+          <t>Córdoba vs Burgos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-01-03 15:00:00</t>
+          <t>2026-01-03 20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Osasuna vs Athletic Club</t>
+          <t>LOSC Lille vs Rennes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-01-03 15:15:00</t>
+          <t>2026-01-03 20:05:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2842,151 +3046,143 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Almería vs Granada</t>
+          <t>AVS vs Moreirense</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2026-01-03 15:15:00</t>
+          <t>2026-01-03 20:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Castellón vs Huesca</t>
+          <t>Farense vs Portimonense SAD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-01-03 15:15:00</t>
+          <t>2026-01-03 20:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3003,13 +3199,13 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -3018,159 +3214,135 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tondela vs Arouca</t>
+          <t>Penafiel vs Paços de Ferreira</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-01-03 15:30:00</t>
+          <t>2026-01-04 11:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Monaco vs Olympique Lyonnais</t>
+          <t>Sporting CP II vs Academico Viseu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-01-03 16:00:00</t>
+          <t>2026-01-04 11:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3191,87 +3363,71 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Juventus vs Lecce</t>
+          <t>Lazio vs Napoli</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-01-03 17:00:00</t>
+          <t>2026-01-04 11:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
     </row>
@@ -3283,71 +3439,87 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AFC Bournemouth vs Arsenal</t>
+          <t>Leeds United vs Manchester United</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-04 12:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
     </row>
@@ -3359,85 +3531,85 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Elche vs Villarreal</t>
+          <t>Sevilla vs Levante</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-04 13:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
@@ -3451,17 +3623,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Real Valladolid vs Racing Santander</t>
+          <t>Sporting Gijón vs Málaga</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-04 13:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3471,42 +3643,42 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -3522,36 +3694,92 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Al Ittihad vs Al Taawoun</t>
+          <t>Fiorentina vs Cremonese</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+          <t>2026-01-04 14:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
     </row>
@@ -3563,286 +3791,286 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nice vs Strasbourg</t>
+          <t>Olympique Marseille vs Nantes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-01-03 18:00:00</t>
+          <t>2026-01-04 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Estrela Amadora vs Sporting Braga</t>
+          <t>Everton vs Brentford</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2026-01-03 18:00:00</t>
+          <t>2026-01-04 15:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Benfica vs Estoril</t>
+          <t>Fulham vs Liverpool</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2026-01-03 18:00:00</t>
+          <t>2026-01-04 15:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Atalanta vs Roma</t>
+          <t>Newcastle United vs Crystal Palace</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-01-03 19:45:00</t>
+          <t>2026-01-04 15:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3857,27 +4085,35 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="U43" t="inlineStr"/>
@@ -3886,413 +4122,445 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Espanyol vs FC Barcelona</t>
+          <t>Tottenham Hotspur vs Sunderland</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-01-03 20:00:00</t>
+          <t>2026-01-04 15:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Córdoba vs Burgos</t>
+          <t>Al Hazm vs NEOM SC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2026-01-03 20:00:00</t>
+          <t>2026-01-04 15:05:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LOSC Lille vs Rennes</t>
+          <t>Real Madrid vs Real Betis</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2026-01-03 20:05:00</t>
+          <t>2026-01-04 15:15:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AVS vs Moreirense</t>
+          <t>Ceuta vs FC Andorra</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2026-01-03 20:30:00</t>
+          <t>2026-01-04 15:15:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Farense vs Portimonense SAD</t>
+          <t>Rio Ave vs Casa Pia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2026-01-03 20:30:00</t>
+          <t>2026-01-04 15:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Penafiel vs Paços de Ferreira</t>
+          <t>Le Havre vs Angers SCO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2026-01-04 11:00:00</t>
+          <t>2026-01-04 16:15:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4302,7 +4570,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4312,17 +4580,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4332,11 +4600,19 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -4350,161 +4626,201 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sporting CP II vs Academico Viseu</t>
+          <t>Lorient vs Metz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2026-01-04 11:00:00</t>
+          <t>2026-01-04 16:15:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lazio vs Napoli</t>
+          <t>Brest vs Auxerre</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2026-01-04 11:30:00</t>
+          <t>2026-01-04 16:15:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Leeds United vs Manchester United</t>
+          <t>Hellas Verona vs Torino</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2026-01-04 12:30:00</t>
+          <t>2026-01-04 17:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4514,181 +4830,149 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sevilla vs Levante</t>
+          <t>Manchester City vs Chelsea</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2026-01-04 13:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sporting Gijón vs Málaga</t>
+          <t>Deportivo Alavés vs Real Oviedo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2026-01-04 13:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4698,41 +4982,49 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -4746,159 +5038,143 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fiorentina vs Cremonese</t>
+          <t>Mallorca vs Girona</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2026-01-04 14:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Olympique Marseille vs Nantes</t>
+          <t>Albacete vs Leganés</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2026-01-04 14:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -4914,67 +5190,67 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Everton vs Brentford</t>
+          <t>Real Zaragoza vs Las Palmas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -4990,67 +5266,67 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fulham vs Liverpool</t>
+          <t>Damac FC vs Al Hilal</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -5066,287 +5342,295 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Newcastle United vs Crystal Palace</t>
+          <t>Al-Qadsiah vs Al Riyadh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-04 17:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur vs Sunderland</t>
+          <t>Santa Clara vs Porto</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Al Hazm vs NEOM SC</t>
+          <t>Inter vs Bologna</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2026-01-04 15:05:00</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+          <t>2026-01-04 19:45:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Ligue 1 - FRA L1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Real Madrid vs Real Betis</t>
+          <t>Paris Saint Germain vs Paris</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2026-01-04 15:15:00</t>
+          <t>2026-01-04 19:45:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -5364,7 +5648,7 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -5378,47 +5662,47 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ceuta vs FC Andorra</t>
+          <t>Real Sociedad vs Atlético Madrid</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2026-01-04 15:15:00</t>
+          <t>2026-01-04 20:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5428,32 +5712,40 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="U63" t="inlineStr"/>
@@ -5462,129 +5754,161 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rio Ave vs Casa Pia</t>
+          <t>Deportivo La Coruña vs Cádiz</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2026-01-04 15:30:00</t>
+          <t>2026-01-04 20:00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Liga Portugal - PRT PL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Le Havre vs Angers SCO</t>
+          <t>Alverca vs Famalicão</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2026-01-04 16:15:00</t>
+          <t>2026-01-04 20:30:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -5598,90 +5922,82 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lorient vs Metz</t>
+          <t>Benfica II vs Porto II</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2026-01-04 16:15:00</t>
+          <t>2026-01-05 18:00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>1.80</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>1.87</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="U66" t="inlineStr"/>
@@ -5690,92 +6006,76 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Brest vs Auxerre</t>
+          <t>Vizela vs Torreense</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2026-01-04 16:15:00</t>
+          <t>2026-01-05 20:15:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
     </row>
@@ -5787,62 +6087,62 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hellas Verona vs Torino</t>
+          <t>Pisa vs Como</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2026-01-04 17:00:00</t>
+          <t>2026-01-06 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -5858,67 +6158,67 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Manchester City vs Chelsea</t>
+          <t>Lecce vs Roma</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-06 17:00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>1.64</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -5934,253 +6234,345 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Deportivo Alavés vs Real Oviedo</t>
+          <t>Sassuolo vs Juventus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+          <t>2026-01-06 19:45:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mallorca vs Girona</t>
+          <t>West Ham United vs Nottingham Forest</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-06 20:00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Albacete vs Leganés</t>
+          <t>Bologna vs Atalanta</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-07 17:30:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Real Zaragoza vs Las Palmas</t>
+          <t>Napoli vs Hellas Verona</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-07 17:30:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -6194,29 +6586,69 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Damac FC vs Al Hilal</t>
+          <t>AFC Bournemouth vs Tottenham Hotspur</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+          <t>2026-01-07 19:30:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
@@ -6230,419 +6662,451 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Al-Qadsiah vs Al Riyadh</t>
+          <t>Brentford vs Sunderland</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+          <t>2026-01-07 19:30:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Santa Clara vs Porto</t>
+          <t>Crystal Palace vs Aston Villa</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2026-01-04 18:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Inter vs Bologna</t>
+          <t>Everton vs Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2026-01-04 19:45:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Paris Saint Germain vs Paris</t>
+          <t>Fulham vs Chelsea</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2026-01-04 19:45:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>16.33</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+      <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Real Sociedad vs Atlético Madrid</t>
+          <t>Manchester City vs Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2026-01-04 20:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Deportivo La Coruña vs Cádiz</t>
+          <t>Lazio vs Fiorentina</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2026-01-04 20:00:00</t>
+          <t>2026-01-07 19:45:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6652,91 +7116,83 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Alverca vs Famalicão</t>
+          <t>Parma vs Inter</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2026-01-04 20:30:00</t>
+          <t>2026-01-07 19:45:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -6751,6 +7207,250 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Torino vs Udinese</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2026-01-07 19:45:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Burnley vs Manchester United</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-01-07 20:15:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Premier League - UK PL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Newcastle United vs Leeds United</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2026-01-07 20:15:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="V2" r:id="rId1"/>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,84 +558,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feirense vs União de Leiria</t>
+          <t>Pisa vs Como</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-03 11:00:00</t>
+          <t>2026-01-06 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -651,177 +643,161 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Como vs Udinese</t>
+          <t>Lecce vs Roma</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-03 11:30:00</t>
+          <t>2026-01-06 17:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aston Villa vs Nottingham Forest</t>
+          <t>Sassuolo vs Juventus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-03 12:30:00</t>
+          <t>2026-01-06 19:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -830,84 +806,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Celta de Vigo vs Valencia</t>
+          <t>West Ham United vs Nottingham Forest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-03 13:00:00</t>
+          <t>2026-01-06 20:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -922,22 +898,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cultural Leonesa vs Real Sociedad II</t>
+          <t>Bologna vs Atalanta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-03 13:00:00</t>
+          <t>2026-01-07 17:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -947,12 +923,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -962,179 +938,203 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Al Fateh vs Al Shabab</t>
+          <t>Napoli vs Hellas Verona</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-03 13:10:00</t>
+          <t>2026-01-07 17:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Genoa vs Pisa</t>
+          <t>AFC Bournemouth vs Tottenham Hotspur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-03 14:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1150,47 +1150,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sassuolo vs Parma</t>
+          <t>Brentford vs Sunderland</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-01-03 14:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1205,27 +1205,35 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
@@ -1234,90 +1242,90 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Felgueiras 1932 vs UD Oliveirense</t>
+          <t>Crystal Palace vs Aston Villa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-01-03 14:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1326,92 +1334,76 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Al-Fayha vs Al Kholood</t>
+          <t>Everton vs Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-01-03 14:55:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
@@ -1423,75 +1415,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion vs Burnley</t>
+          <t>Fulham vs Chelsea</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-01-03 15:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1507,154 +1491,138 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers vs West Ham United</t>
+          <t>Manchester City vs Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-01-03 15:00:00</t>
+          <t>2026-01-07 19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Osasuna vs Athletic Club</t>
+          <t>Lazio vs Fiorentina</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-01-03 15:15:00</t>
+          <t>2026-01-07 19:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1670,511 +1638,443 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Almería vs Granada</t>
+          <t>Parma vs Inter</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-01-03 15:15:00</t>
+          <t>2026-01-07 19:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Castellón vs Huesca</t>
+          <t>Torino vs Udinese</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-01-03 15:15:00</t>
+          <t>2026-01-07 19:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tondela vs Arouca</t>
+          <t>Burnley vs Manchester United</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-01-03 15:30:00</t>
+          <t>2026-01-07 20:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Monaco vs Olympique Lyonnais</t>
+          <t>Newcastle United vs Leeds United</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-01-03 16:00:00</t>
+          <t>2026-01-07 20:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Juventus vs Lecce</t>
+          <t>Al Hilal vs Al Hazm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-01-03 17:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
+          <t>2026-01-08 14:55:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12.30</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AFC Bournemouth vs Arsenal</t>
+          <t>Cremonese vs Cagliari</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-08 17:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2190,164 +2090,144 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Elche vs Villarreal</t>
+          <t>Al Nassr vs Al-Qadsiah</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-08 17:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Real Valladolid vs Racing Santander</t>
+          <t>Al Najma vs Al Ettifaq</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-08 17:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2358,90 +2238,90 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Al Ittihad vs Al Taawoun</t>
+          <t>AC Milan vs Genoa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-03 17:30:00</t>
+          <t>2026-01-08 19:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
@@ -2450,139 +2330,123 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nice vs Strasbourg</t>
+          <t>Arsenal vs Liverpool</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-01-03 18:00:00</t>
+          <t>2026-01-08 20:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Estrela Amadora vs Sporting Braga</t>
+          <t>Lusitania FC Lourosa vs Leixões</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-01-03 18:00:00</t>
+          <t>2026-01-08 20:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2592,145 +2456,145 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Benfica vs Estoril</t>
+          <t>Al Khaleej vs Damac FC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-01-03 18:00:00</t>
+          <t>2026-01-09 13:10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Atalanta vs Roma</t>
+          <t>Al Taawoun vs Al Shabab</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-01-03 19:45:00</t>
+          <t>2026-01-09 15:05:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2740,60 +2604,44 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
@@ -2802,109 +2650,85 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Espanyol vs FC Barcelona</t>
+          <t>Al Kholood vs Al Ittihad</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-01-03 20:00:00</t>
+          <t>2026-01-09 17:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Córdoba vs Burgos</t>
+          <t>NEC Nijmegen vs FC Utrecht</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-01-03 20:00:00</t>
+          <t>2026-01-09 19:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2914,47 +2738,47 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2970,67 +2794,67 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LOSC Lille vs Rennes</t>
+          <t>Eintracht Frankfurt vs Borussia Dortmund</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-01-03 20:05:00</t>
+          <t>2026-01-09 19:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3046,37 +2870,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AVS vs Moreirense</t>
+          <t>Cádiz vs Sporting Gijón</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2026-01-03 20:30:00</t>
+          <t>2026-01-09 19:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3086,29 +2910,21 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -3122,156 +2938,148 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Farense vs Portimonense SAD</t>
+          <t>Getafe vs Real Sociedad</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-01-03 20:30:00</t>
+          <t>2026-01-09 20:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Penafiel vs Paços de Ferreira</t>
+          <t>Tijuana vs América</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-01-04 11:00:00</t>
+          <t>2026-01-10 03:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -3282,242 +3090,230 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sporting CP II vs Academico Viseu</t>
+          <t>Mazatlán vs Juárez</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-01-04 11:00:00</t>
+          <t>2026-01-10 03:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lazio vs Napoli</t>
+          <t>Atlas vs Puebla</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-01-04 11:30:00</t>
+          <t>2026-01-10 03:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Leeds United vs Manchester United</t>
+          <t>Real Oviedo vs Real Betis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026-01-04 12:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
+          <t>2026-01-10 13:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -3526,52 +3322,52 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sevilla vs Levante</t>
+          <t>Mirandés vs Almería</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-01-04 13:00:00</t>
+          <t>2026-01-10 13:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3579,37 +3375,29 @@
           <t>1.80</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
@@ -3618,67 +3406,67 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sporting Gijón vs Málaga</t>
+          <t>Como vs Bologna</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-01-04 13:00:00</t>
+          <t>2026-01-10 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -3699,156 +3487,112 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fiorentina vs Cremonese</t>
+          <t>Udinese vs Pisa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2026-01-04 14:00:00</t>
+          <t>2026-01-10 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Olympique Marseille vs Nantes</t>
+          <t>NEOM SC vs Al Fateh</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-01-04 14:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
+          <t>2026-01-10 14:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>11.65</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -3862,67 +3606,67 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Everton vs Brentford</t>
+          <t>Heidenheim vs FC Köln</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -3938,274 +3682,242 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fulham vs Liverpool</t>
+          <t>FC Union Berlin vs FSV Mainz 05</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Newcastle United vs Crystal Palace</t>
+          <t>St. Pauli vs RB Leipzig</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur vs Sunderland</t>
+          <t>SC Freiburg vs Hamburger SV</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-01-04 15:00:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="U44" t="inlineStr"/>
@@ -4214,363 +3926,347 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Al Hazm vs NEOM SC</t>
+          <t>Werder Bremen vs TSG Hoffenheim</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2026-01-04 15:05:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Real Madrid vs Real Betis</t>
+          <t>Kifisia vs Larissa</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2026-01-04 15:15:00</t>
+          <t>2026-01-10 15:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ceuta vs FC Andorra</t>
+          <t>Al Riyadh vs Al-Fayha</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2026-01-04 15:15:00</t>
+          <t>2026-01-10 15:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>1.90</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1.80</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Rio Ave vs Casa Pia</t>
+          <t>Villarreal vs Deportivo Alavés</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2026-01-04 15:30:00</t>
+          <t>2026-01-10 15:15:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Le Havre vs Angers SCO</t>
+          <t>FC Andorra vs Cultural Leonesa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2026-01-04 16:15:00</t>
+          <t>2026-01-10 15:15:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4580,136 +4276,136 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lorient vs Metz</t>
+          <t>Real Sociedad II vs Albacete</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2026-01-04 16:15:00</t>
+          <t>2026-01-10 15:15:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U50" t="inlineStr"/>
@@ -4718,92 +4414,76 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Brest vs Auxerre</t>
+          <t>AZ vs FC Volendam</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2026-01-04 16:15:00</t>
+          <t>2026-01-10 15:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
     </row>
@@ -4815,42 +4495,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hellas Verona vs Torino</t>
+          <t>Roma vs Sassuolo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2026-01-04 17:00:00</t>
+          <t>2026-01-10 17:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4865,88 +4545,104 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manchester City vs Chelsea</t>
+          <t>Bayer 04 Leverkusen vs VfB Stuttgart</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -4967,140 +4663,148 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Deportivo Alavés vs Real Oviedo</t>
+          <t>Girona vs Osasuna</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mallorca vs Girona</t>
+          <t>Burgos vs SD Eibar</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -5119,64 +4823,56 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Albacete vs Leganés</t>
+          <t>Las Palmas vs Deportivo La Coruña</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -5190,152 +4886,140 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Real Zaragoza vs Las Palmas</t>
+          <t>Panaitolikos vs PAOK</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Damac FC vs Al Hilal</t>
+          <t>Atromitos vs Olympiacos F.C.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
+          <t>2026-01-10 17:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
     </row>
@@ -5347,54 +5031,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Al-Qadsiah vs Al Riyadh</t>
+          <t>Al Akhdoud vs Al Ahli</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2026-01-04 17:30:00</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+          <t>2026-01-10 17:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -5410,69 +5062,61 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Santa Clara vs Porto</t>
+          <t>FC Twente vs PEC Zwolle</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2026-01-04 18:00:00</t>
+          <t>2026-01-10 17:45:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -5486,266 +5130,242 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Inter vs Bologna</t>
+          <t>PSV vs Excelsior</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2026-01-04 19:45:00</t>
+          <t>2026-01-10 19:00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ligue 1 - FRA L1</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Paris Saint Germain vs Paris</t>
+          <t>Atalanta vs Torino</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2026-01-04 19:45:00</t>
+          <t>2026-01-10 19:45:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Real Sociedad vs Atlético Madrid</t>
+          <t>FC Groningen vs NAC Breda</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2026-01-04 20:00:00</t>
+          <t>2026-01-10 20:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
         <is>
           <t>1.97</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>1.82</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U63" t="inlineStr"/>
@@ -5754,161 +5374,137 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Deportivo La Coruña vs Cádiz</t>
+          <t>Valencia vs Elche</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2026-01-04 20:00:00</t>
+          <t>2026-01-10 20:00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Liga Portugal - PRT PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alverca vs Famalicão</t>
+          <t>Racing Santander vs Real Zaragoza</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2026-01-04 20:30:00</t>
+          <t>2026-01-10 20:00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -5922,17 +5518,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Benfica II vs Porto II</t>
+          <t>Guadalajara vs Pachuca</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2026-01-05 18:00:00</t>
+          <t>2026-01-10 23:00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5947,22 +5543,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5972,1484 +5568,36 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Liga Portugal 2 - PRT SL</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Vizela vs Torreense</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2026-01-05 20:15:00</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Pisa vs Como</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2026-01-06 14:00:00</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Lecce vs Roma</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2026-01-06 17:00:00</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Sassuolo vs Juventus</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2026-01-06 19:45:00</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>West Ham United vs Nottingham Forest</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2026-01-06 20:00:00</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Bologna vs Atalanta</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2026-01-07 17:30:00</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Napoli vs Hellas Verona</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2026-01-07 17:30:00</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>AFC Bournemouth vs Tottenham Hotspur</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:30:00</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Brentford vs Sunderland</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:30:00</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Crystal Palace vs Aston Villa</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:30:00</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Everton vs Wolverhampton Wanderers</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:30:00</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Fulham vs Chelsea</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:30:00</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Manchester City vs Brighton &amp; Hove Albion</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:30:00</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Lazio vs Fiorentina</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:45:00</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Parma vs Inter</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:45:00</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Serie A - ITA SA</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Torino vs Udinese</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2026-01-07 19:45:00</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Burnley vs Manchester United</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2026-01-07 20:15:00</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Premier League - UK PL</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Newcastle United vs Leeds United</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2026-01-07 20:15:00</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,67 +558,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pisa vs Como</t>
+          <t>Al Hilal vs Al Hazm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-06 14:00:00</t>
+          <t>2026-01-08 14:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -643,62 +643,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lecce vs Roma</t>
+          <t>Cremonese vs Cagliari</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-06 17:00:00</t>
+          <t>2026-01-08 17:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2.10</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2.21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -714,114 +714,106 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sassuolo vs Juventus</t>
+          <t>Al Nassr vs Al-Qadsiah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-06 19:45:00</t>
+          <t>2026-01-08 17:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>4.75</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>West Ham United vs Nottingham Forest</t>
+          <t>Al Najma vs Al Ettifaq</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-06 20:00:00</t>
+          <t>2026-01-08 17:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -831,65 +823,65 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>1.95</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2.02</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
@@ -903,85 +895,85 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bologna vs Atalanta</t>
+          <t>AC Milan vs Genoa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-07 17:30:00</t>
+          <t>2026-01-08 19:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
@@ -990,82 +982,90 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Premier League - UK PL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Napoli vs Hellas Verona</t>
+          <t>Arsenal vs Liverpool</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-07 17:30:00</t>
+          <t>2026-01-08 20:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
@@ -1074,72 +1074,80 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AFC Bournemouth vs Tottenham Hotspur</t>
+          <t>Lusitania FC Lourosa vs Leixões</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-07 19:30:00</t>
+          <t>2026-01-08 20:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1150,90 +1158,82 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brentford vs Sunderland</t>
+          <t>Al Khaleej vs Damac FC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-01-07 19:30:00</t>
+          <t>2026-01-09 13:10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
@@ -1242,90 +1242,90 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crystal Palace vs Aston Villa</t>
+          <t>Al Taawoun vs Al Shabab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-01-07 19:30:00</t>
+          <t>2026-01-09 15:05:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1334,69 +1334,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Everton vs Wolverhampton Wanderers</t>
+          <t>Al Kholood vs Al Ittihad</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-01-07 19:30:00</t>
+          <t>2026-01-09 17:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1410,67 +1402,67 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fulham vs Chelsea</t>
+          <t>NEC Nijmegen vs FC Utrecht</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-01-07 19:30:00</t>
+          <t>2026-01-09 19:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1486,67 +1478,67 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manchester City vs Brighton &amp; Hove Albion</t>
+          <t>Eintracht Frankfurt vs Borussia Dortmund</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-01-07 19:30:00</t>
+          <t>2026-01-09 19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1562,22 +1554,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lazio vs Fiorentina</t>
+          <t>Cádiz vs Sporting Gijón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-01-07 19:45:00</t>
+          <t>2026-01-09 19:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1587,12 +1579,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1602,27 +1594,27 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1638,67 +1630,67 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parma vs Inter</t>
+          <t>Getafe vs Real Sociedad</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-01-07 19:45:00</t>
+          <t>2026-01-09 20:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1714,72 +1706,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Torino vs Udinese</t>
+          <t>Tijuana vs América</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-01-07 19:45:00</t>
+          <t>2026-01-10 03:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1790,166 +1782,182 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Burnley vs Manchester United</t>
+          <t>Mazatlán vs Juárez</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-01-07 20:15:00</t>
+          <t>2026-01-10 03:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Newcastle United vs Leeds United</t>
+          <t>Atlas vs Puebla</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-01-07 20:15:00</t>
+          <t>2026-01-10 03:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>1.95</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1.82</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
@@ -1958,17 +1966,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al Hilal vs Al Hazm</t>
+          <t>Real Oviedo vs Real Betis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-01-08 14:55:00</t>
+          <t>2026-01-10 13:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1976,141 +1984,165 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cremonese vs Cagliari</t>
+          <t>Mirandés vs Almería</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-01-08 17:30:00</t>
+          <t>2026-01-10 13:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al Nassr vs Al-Qadsiah</t>
+          <t>Como vs Bologna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-01-08 17:30:00</t>
+          <t>2026-01-10 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2120,114 +2152,118 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Al Najma vs Al Ettifaq</t>
+          <t>Udinese vs Pisa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-01-08 17:30:00</t>
+          <t>2026-01-10 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2238,159 +2274,123 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AC Milan vs Genoa</t>
+          <t>NEOM SC vs Al Fateh</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-08 19:45:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
+          <t>2026-01-10 14:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Premier League - UK PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Arsenal vs Liverpool</t>
+          <t>Heidenheim vs FC Köln</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-01-08 20:00:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -2406,47 +2406,47 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Liga Portugal 2 - PRT SL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lusitania FC Lourosa vs Leixões</t>
+          <t>FC Union Berlin vs FSV Mainz 05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-01-08 20:15:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2456,30 +2456,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -2490,158 +2482,166 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Al Khaleej vs Damac FC</t>
+          <t>St. Pauli vs RB Leipzig</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-01-09 13:10:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>1.72</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1.70</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Al Taawoun vs Al Shabab</t>
+          <t>SC Freiburg vs Hamburger SV</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-01-09 15:05:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
@@ -2650,61 +2650,69 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Al Kholood vs Al Ittihad</t>
+          <t>Werder Bremen vs TSG Hoffenheim</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-01-09 17:30:00</t>
+          <t>2026-01-10 14:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -2718,143 +2726,151 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NEC Nijmegen vs FC Utrecht</t>
+          <t>Kifisia vs Larissa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-01-09 19:00:00</t>
+          <t>2026-01-10 15:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt vs Borussia Dortmund</t>
+          <t>Al Riyadh vs Al-Fayha</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-01-09 19:30:00</t>
+          <t>2026-01-10 15:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2870,52 +2886,52 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cádiz vs Sporting Gijón</t>
+          <t>Villarreal vs Deportivo Alavés</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2026-01-09 19:30:00</t>
+          <t>2026-01-10 15:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2923,315 +2939,371 @@
           <t>2.00</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Getafe vs Real Sociedad</t>
+          <t>FC Andorra vs Cultural Leonesa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-01-09 20:00:00</t>
+          <t>2026-01-10 15:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tijuana vs América</t>
+          <t>Real Sociedad II vs Albacete</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-01-10 03:00:00</t>
+          <t>2026-01-10 15:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mazatlán vs Juárez</t>
+          <t>AZ vs FC Volendam</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-01-10 03:00:00</t>
+          <t>2026-01-10 15:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Atlas vs Puebla</t>
+          <t>Roma vs Sassuolo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-01-10 03:00:00</t>
+          <t>2026-01-10 17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -3243,13 +3315,13 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="U35" t="inlineStr"/>
@@ -3258,116 +3330,128 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Real Oviedo vs Real Betis</t>
+          <t>Bayer 04 Leverkusen vs VfB Stuttgart</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026-01-10 13:00:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>2026-01-10 17:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mirandés vs Almería</t>
+          <t>Girona vs Osasuna</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-01-10 13:00:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3375,29 +3459,37 @@
           <t>1.80</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
@@ -3406,67 +3498,67 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Como vs Bologna</t>
+          <t>Burgos vs SD Eibar</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-01-10 14:00:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -3482,67 +3574,67 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Udinese vs Pisa</t>
+          <t>Las Palmas vs Deportivo La Coruña</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2026-01-10 14:00:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -3558,193 +3650,197 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NEOM SC vs Al Fateh</t>
+          <t>Panaitolikos vs PAOK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-01-10 14:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+          <t>2026-01-10 17:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Heidenheim vs FC Köln</t>
+          <t>Atromitos vs Olympiacos F.C.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2026-01-10 14:30:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
+          <t>2026-01-10 17:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FC Union Berlin vs FSV Mainz 05</t>
+          <t>Al Akhdoud vs Al Ahli</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2026-01-10 14:30:00</t>
+          <t>2026-01-10 17:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -3758,69 +3854,61 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>St. Pauli vs RB Leipzig</t>
+          <t>FC Twente vs PEC Zwolle</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-01-10 14:30:00</t>
+          <t>2026-01-10 17:45:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -3834,250 +3922,250 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SC Freiburg vs Hamburger SV</t>
+          <t>PSV vs Excelsior</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-01-10 14:30:00</t>
+          <t>2026-01-10 19:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Werder Bremen vs TSG Hoffenheim</t>
+          <t>Atalanta vs Torino</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2026-01-10 14:30:00</t>
+          <t>2026-01-10 19:45:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kifisia vs Larissa</t>
+          <t>FC Groningen vs NAC Breda</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2026-01-10 15:00:00</t>
+          <t>2026-01-10 20:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="U46" t="inlineStr"/>
@@ -4086,52 +4174,52 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Al Riyadh vs Al-Fayha</t>
+          <t>Valencia vs Elche</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2026-01-10 15:00:00</t>
+          <t>2026-01-10 20:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4139,8 +4227,16 @@
           <t>1.90</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -4154,174 +4250,158 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Villarreal vs Deportivo Alavés</t>
+          <t>Racing Santander vs Real Zaragoza</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2026-01-10 15:15:00</t>
+          <t>2026-01-10 20:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FC Andorra vs Cultural Leonesa</t>
+          <t>Guadalajara vs Pachuca</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2026-01-10 15:15:00</t>
+          <t>2026-01-10 23:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="U49" t="inlineStr"/>
@@ -4330,157 +4410,149 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Real Sociedad II vs Albacete</t>
+          <t>Santos Laguna vs Necaxa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2026-01-10 15:15:00</t>
+          <t>2026-01-11 01:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AZ vs FC Volendam</t>
+          <t>León vs Cruz Azul</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2026-01-10 15:30:00</t>
+          <t>2026-01-11 01:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -4490,164 +4562,164 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Roma vs Sassuolo</t>
+          <t>Monterrey vs Toluca</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2026-01-10 17:00:00</t>
+          <t>2026-01-11 03:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bundesliga - GER BI</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen vs VfB Stuttgart</t>
+          <t>Portimonense SAD vs Felgueiras 1932</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
+          <t>2026-01-11 11:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
@@ -4658,153 +4730,145 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>La Liga - ESP PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Girona vs Osasuna</t>
+          <t>SC Heerenveen vs Feyenoord</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
+          <t>2026-01-11 11:15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Burgos vs SD Eibar</t>
+          <t>Lecce vs Parma</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
+          <t>2026-01-11 11:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -4818,61 +4882,69 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>La Liga - ESP PL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Las Palmas vs Deportivo La Coruña</t>
+          <t>Rayo Vallecano vs Mallorca</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
+          <t>2026-01-11 13:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -4886,169 +4958,213 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Panaitolikos vs PAOK</t>
+          <t>Leganés vs Real Valladolid</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
+          <t>2026-01-11 13:00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Super League - GRC SL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Atromitos vs Olympiacos F.C.</t>
+          <t>Go Ahead Eagles vs Fortuna Sittard</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+          <t>2026-01-11 13:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pro League - SAU PL</t>
+          <t>Eredivisie - NLD E</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Al Akhdoud vs Al Ahli</t>
+          <t>Telstar vs Ajax</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2026-01-10 17:30:00</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+          <t>2026-01-11 13:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -5062,310 +5178,326 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Serie A - ITA SA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FC Twente vs PEC Zwolle</t>
+          <t>Fiorentina vs AC Milan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2026-01-10 17:45:00</t>
+          <t>2026-01-11 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Super League - GRC SL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PSV vs Excelsior</t>
+          <t>Levadiakos vs Volos NFC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2026-01-10 19:00:00</t>
+          <t>2026-01-11 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Serie A - ITA SA</t>
+          <t>Liga Portugal 2 - PRT SL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Atalanta vs Torino</t>
+          <t>Chaves vs Marítimo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2026-01-10 19:45:00</t>
+          <t>2026-01-11 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Eredivisie - NLD E</t>
+          <t>Bundesliga - GER BI</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FC Groningen vs NAC Breda</t>
+          <t>Borussia Mönchengladbach vs FC Augsburg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2026-01-10 20:00:00</t>
+          <t>2026-01-11 14:30:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="U63" t="inlineStr"/>
@@ -5379,71 +5511,79 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Valencia vs Elche</t>
+          <t>Levante vs Espanyol</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2026-01-10 20:00:00</t>
+          <t>2026-01-11 15:15:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
     </row>
@@ -5455,42 +5595,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Racing Santander vs Real Zaragoza</t>
+          <t>Granada vs Castellón</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2026-01-10 20:00:00</t>
+          <t>2026-01-11 15:15:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5503,101 +5643,1501 @@
           <t>1.66</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Liga MX - MEX AL</t>
+          <t>La Liga 2 - ESP S</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Guadalajara vs Pachuca</t>
+          <t>Málaga vs Ceuta</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2026-01-10 23:00:00</t>
+          <t>2026-01-11 15:15:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>OFI vs Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:30:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nacional vs Santa Clara</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:30:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Porto II vs Sporting CP II</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:30:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Eredivisie - NLD E</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam vs Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:45:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FC Bayern München vs VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2026-01-11 16:30:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hellas Verona vs Lazio</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2026-01-11 17:00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Aris vs AEK Athens</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2026-01-11 17:30:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Liga Portugal - PRT PL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Moreirense vs Tondela</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2026-01-11 18:00:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Liga Portugal 2 - PRT SL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>UD Oliveirense vs Feirense</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2026-01-11 18:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Liga MX - MEX AL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Pumas UNAM vs Querétaro</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2026-01-11 18:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Super League - GRC SL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Panathinaikos vs Panserraikos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2026-01-11 19:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Inter vs Napoli</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2026-01-11 19:45:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Liga MX - MEX AL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Atlético San Luis vs Tigres UANL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026-01-12 01:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Al Hazm vs Al Najma</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2026-01-12 15:10:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Genoa vs Cagliari</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2026-01-12 17:30:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Al Ettifaq vs Al Khaleej</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2026-01-12 17:30:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Al Hilal vs Al Nassr</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-01-12 17:30:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Huesca vs Córdoba</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2026-01-12 19:30:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Serie A - ITA SA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Juventus vs Cremonese</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2026-01-12 19:45:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sevilla vs Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2026-01-12 20:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
